--- a/output/StructureDefinition-mypatient.xlsx
+++ b/output/StructureDefinition-mypatient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="330">
   <si>
     <t>Path</t>
   </si>
@@ -140,8 +140,8 @@
     <t>Patient</t>
   </si>
   <si>
-    <t>SubjectOfCare Client Resident
-Form Data</t>
+    <t xml:space="preserve">SubjectOfCare Client Resident
+</t>
   </si>
   <si>
     <t>0</t>
@@ -153,10 +153,10 @@
     <t/>
   </si>
   <si>
-    <t>My Favorite Patient Profile</t>
-  </si>
-  <si>
-    <t>This will be the description for the patient profile within the profile page.</t>
+    <t>Information about an individual or animal receiving health care services</t>
+  </si>
+  <si>
+    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -316,21 +316,21 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -340,31 +340,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>myExtension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://somewhere.org/fhir/uv/myig/StructureDefinition/ext-myExtension}
-</t>
-  </si>
-  <si>
-    <t>Context-specific Extension Name</t>
-  </si>
-  <si>
-    <t>Context-specific Extension Description.</t>
-  </si>
-  <si>
-    <t>…Add on these extension usage notes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -372,9 +348,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -464,10 +437,6 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t>value:use}
-exists:period.end}</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -475,270 +444,6 @@
   </si>
   <si>
     <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>CurrentOfficial</t>
-  </si>
-  <si>
-    <t>…
-CurrentOfficial is an official name for the patient that does not have an end date specified.</t>
-  </si>
-  <si>
-    <t>Patient.name.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Patient.name.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Patient.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
-  </si>
-  <si>
-    <t>Patient.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>Patient.name.family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
-</t>
-  </si>
-  <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>XPN.1/FN.1</t>
-  </si>
-  <si>
-    <t>Patient.name.given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>Patient.name.prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>XPN.5</t>
-  </si>
-  <si>
-    <t>Patient.name.suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>XPN/4</t>
-  </si>
-  <si>
-    <t>Patient.name.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
-  </si>
-  <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>XPN.13 + XPN.14</t>
-  </si>
-  <si>
-    <t>Patient.name.period.id</t>
-  </si>
-  <si>
-    <t>Patient.name.period.extension</t>
-  </si>
-  <si>
-    <t>Patient.name.period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Starting time with inclusive boundary</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>Patient.name.period.end</t>
-  </si>
-  <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>DR.2</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -782,6 +487,9 @@
   </si>
   <si>
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
   <si>
     <t>The gender of a person used for administrative purposes.</t>
@@ -999,7 +707,22 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Patient.contact.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -1127,6 +850,10 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1471,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1481,7 +1208,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1507,7 +1234,7 @@
     <col min="25" max="25" width="52.4609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1518,7 +1245,7 @@
     <col min="36" max="36" width="151.51171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.29296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="41.1328125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2444,7 +2171,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2463,15 +2190,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2508,14 +2237,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>101</v>
@@ -2533,7 +2264,7 @@
         <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>44</v>
@@ -2550,43 +2281,43 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>103</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>44</v>
       </c>
@@ -2634,7 +2365,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2643,13 +2374,13 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>44</v>
@@ -2666,11 +2397,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2683,25 +2414,23 @@
         <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2750,7 +2479,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2762,19 +2491,19 @@
         <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>44</v>
@@ -2782,7 +2511,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2793,84 +2522,88 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>44</v>
@@ -2879,16 +2612,16 @@
         <v>63</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2896,7 +2629,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2907,88 +2640,86 @@
         <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
@@ -2997,16 +2728,16 @@
         <v>63</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -3014,7 +2745,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3037,19 +2768,19 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3086,17 +2817,19 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3126,25 +2859,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>145</v>
       </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>44</v>
@@ -3153,19 +2884,19 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -3190,13 +2921,13 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>44</v>
@@ -3214,13 +2945,13 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>44</v>
@@ -3229,16 +2960,16 @@
         <v>63</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -3246,7 +2977,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3266,19 +2997,23 @@
         <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3326,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3338,61 +3073,63 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
       </c>
@@ -3428,51 +3165,51 @@
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3480,41 +3217,41 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>44</v>
@@ -3532,13 +3269,13 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3556,13 +3293,13 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
@@ -3571,16 +3308,16 @@
         <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3588,7 +3325,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3608,22 +3345,20 @@
         <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3648,13 +3383,13 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
@@ -3672,7 +3407,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3687,16 +3422,16 @@
         <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3704,11 +3439,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3724,21 +3459,23 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3786,7 +3523,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3801,16 +3538,16 @@
         <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -3818,11 +3555,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3838,21 +3575,23 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3900,7 +3639,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3915,16 +3654,16 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3932,7 +3671,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3952,19 +3691,23 @@
         <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4012,7 +3755,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4024,19 +3767,19 @@
         <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -4044,7 +3787,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4055,7 +3798,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4064,16 +3807,16 @@
         <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4124,22 +3867,22 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
@@ -4148,7 +3891,7 @@
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4156,18 +3899,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4176,21 +3919,21 @@
         <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4238,22 +3981,22 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4262,7 +4005,7 @@
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4270,39 +4013,43 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4350,22 +4097,22 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -4382,11 +4129,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4405,18 +4152,18 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4440,31 +4187,31 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4476,19 +4223,19 @@
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4496,7 +4243,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4516,21 +4263,21 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4578,7 +4325,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4587,30 +4334,30 @@
         <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4621,36 +4368,36 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4694,31 +4441,31 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4726,7 +4473,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4737,7 +4484,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4746,22 +4493,20 @@
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4810,13 +4555,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -4825,16 +4570,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4842,7 +4587,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4862,22 +4607,20 @@
         <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4902,13 +4645,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -4926,7 +4669,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4941,16 +4684,16 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4958,7 +4701,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4978,22 +4721,20 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -5042,7 +4783,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5051,30 +4792,30 @@
         <v>51</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5091,26 +4832,22 @@
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5158,7 +4895,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5173,16 +4910,16 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5190,7 +4927,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5210,22 +4947,22 @@
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5274,7 +5011,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5289,16 +5026,16 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5329,18 +5066,16 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5364,13 +5099,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5388,7 +5123,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5400,19 +5135,19 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5420,18 +5155,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5443,20 +5178,18 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5504,31 +5237,31 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5536,11 +5269,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5553,25 +5286,25 @@
         <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5620,7 +5353,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5632,19 +5365,19 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>302</v>
+        <v>94</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5652,7 +5385,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5660,10 +5393,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5675,19 +5408,19 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5712,13 +5445,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5736,31 +5469,31 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>310</v>
+        <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5768,7 +5501,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5791,16 +5524,20 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5848,7 +5585,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5860,19 +5597,19 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5880,11 +5617,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5903,16 +5640,16 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5962,7 +5699,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5974,19 +5711,19 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5994,42 +5731,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>113</v>
+        <v>307</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6078,25 +5815,25 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -6110,7 +5847,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6127,23 +5864,25 @@
         <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6168,13 +5907,13 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -6192,7 +5931,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6207,16 +5946,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6224,7 +5963,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6247,18 +5986,16 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6306,7 +6043,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6318,19 +6055,19 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6338,11 +6075,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6361,20 +6098,18 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>333</v>
+        <v>98</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
+        <v>223</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6422,7 +6157,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>224</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6434,19 +6169,19 @@
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6454,40 +6189,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>269</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6536,31 +6273,31 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>274</v>
+        <v>94</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6568,7 +6305,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6576,7 +6313,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>51</v>
@@ -6588,21 +6325,21 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6626,13 +6363,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6650,10 +6387,10 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>51</v>
@@ -6665,16 +6402,16 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6682,7 +6419,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6690,7 +6427,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -6702,21 +6439,19 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>347</v>
+        <v>71</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>350</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6740,13 +6475,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6764,1754 +6499,38 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN61" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8521,7 +6540,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
